--- a/Excel/镇魂街/national_alliance国战联盟.xlsx
+++ b/Excel/镇魂街/national_alliance国战联盟.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="联盟权限" sheetId="33" r:id="rId3"/>
     <sheet name="联盟等级" sheetId="34" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="129">
   <si>
     <t>sheet名</t>
   </si>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Key</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>#note</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -170,10 +166,6 @@
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -465,6 +457,82 @@
   </si>
   <si>
     <t>增加联盟势力值</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeLimit</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟公告字数限制</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助列</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarCfgs</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpCol</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpCol,Key</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpCol,Key</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>副盟主</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>指挥官</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderName</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>盟主</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>等阶名称</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +757,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -703,7 +771,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -1000,7 +1067,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1046,16 +1113,18 @@
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1063,21 +1132,23 @@
       <c r="H2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="b">
@@ -1088,17 +1159,17 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="b">
@@ -1109,11 +1180,11 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -1128,11 +1199,11 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -1147,11 +1218,11 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
@@ -1184,422 +1255,472 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="24" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="17.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="77.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="50.375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="4" width="25.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="17.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="77.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="50.375" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>86400</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="G8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>10001</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>86400</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>43200</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>20</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>10006</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>259200</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>43200</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>10007</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>259200</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>10008</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
         <v>500</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>50</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="D42" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -1611,342 +1732,406 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="8"/>
-    <col min="4" max="4" width="9.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="8"/>
-    <col min="6" max="6" width="13.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="8"/>
+    <col min="1" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="9.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9" style="7"/>
+    <col min="8" max="8" width="13.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="D3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="11" t="s">
+      <c r="H7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8">
-        <v>3</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="8">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
-        <v>5</v>
-      </c>
+      <c r="E8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1954,42 +2139,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="9" style="8"/>
-    <col min="7" max="7" width="14.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="14.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -2001,1551 +2186,1551 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
         <v>100</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>22</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8">
-        <v>100</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F36" si="0">F4+2</f>
         <v>24</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>0.01</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f>H4+(A5-1)*50</f>
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>3</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f t="shared" ref="E6:E53" si="1">E5+(D6-1)*100</f>
         <v>300</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>0.01</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f t="shared" ref="H6:H53" si="2">H5+(A6-1)*50</f>
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>0.02</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="B8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>5</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>0.02</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="8">
+      <c r="B9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="7">
         <v>6</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>6</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>0.02</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>7</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <f>G7+0.01</f>
         <v>0.03</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f t="shared" si="2"/>
         <v>1050</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="B11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>8</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>2800</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <f t="shared" ref="G11:G53" si="3">G8+0.01</f>
         <v>0.03</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="7">
         <v>9</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>9</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>10</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>4500</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <f t="shared" si="2"/>
         <v>2250</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="7">
         <v>11</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>11</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <f t="shared" si="2"/>
         <v>2750</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="B15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="7">
         <v>12</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>12</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>6600</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <f t="shared" si="2"/>
         <v>3300</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="7">
         <v>13</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>13</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
         <v>7800</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <f t="shared" si="2"/>
         <v>3900</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="7">
         <v>14</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>14</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
         <v>9100</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <f t="shared" si="2"/>
         <v>4550</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="7">
         <v>15</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>15</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f t="shared" si="1"/>
         <v>10500</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <f t="shared" si="2"/>
         <v>5250</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="7">
         <v>16</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>16</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <f t="shared" si="3"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="7">
         <v>17</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>17</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <f t="shared" si="1"/>
         <v>13600</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <f t="shared" si="3"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <f t="shared" si="2"/>
         <v>6800</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="B21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="7">
         <v>18</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>18</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>15300</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <f t="shared" si="3"/>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <f t="shared" si="2"/>
         <v>7650</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>19</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="7">
         <v>19</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>19</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <f t="shared" si="1"/>
         <v>17100</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <f t="shared" si="2"/>
         <v>8550</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="B23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="7">
         <v>20</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>20</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <f t="shared" si="1"/>
         <v>19000</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <f t="shared" si="2"/>
         <v>9500</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>21</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="7">
         <v>21</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>21</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f t="shared" si="1"/>
         <v>21000</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <f t="shared" si="2"/>
         <v>10500</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="B25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="7">
         <v>22</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>22</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <f t="shared" si="1"/>
         <v>23100</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <f t="shared" si="2"/>
         <v>11550</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="B26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="7">
         <v>23</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>23</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <f t="shared" si="1"/>
         <v>25300</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <f t="shared" si="2"/>
         <v>12650</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>24</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="7">
         <v>24</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>24</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <f t="shared" si="1"/>
         <v>27600</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <f t="shared" si="2"/>
         <v>13800</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>25</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="7">
         <v>25</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>25</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <f t="shared" si="3"/>
         <v>0.09</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <f t="shared" si="2"/>
         <v>15000</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>26</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="8">
+      <c r="B29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="7">
         <v>26</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>26</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <f t="shared" si="1"/>
         <v>32500</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <f t="shared" si="3"/>
         <v>0.09</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <f t="shared" si="2"/>
         <v>16250</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>27</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="B30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="7">
         <v>27</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>27</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <f t="shared" si="1"/>
         <v>35100</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <f t="shared" si="3"/>
         <v>0.09</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <f t="shared" si="2"/>
         <v>17550</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>28</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="B31" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="7">
         <v>28</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>28</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <f t="shared" si="1"/>
         <v>37800</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <f t="shared" si="3"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <f t="shared" si="2"/>
         <v>18900</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>29</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="8">
+      <c r="B32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="7">
         <v>29</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>29</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <f t="shared" si="1"/>
         <v>40600</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <f t="shared" si="3"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <f t="shared" si="2"/>
         <v>20300</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>30</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="8">
+      <c r="B33" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="7">
         <v>30</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>30</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <f t="shared" si="1"/>
         <v>43500</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <f t="shared" si="3"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <f t="shared" si="2"/>
         <v>21750</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>31</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="B34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="7">
         <v>31</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>31</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <f t="shared" si="1"/>
         <v>46500</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <f t="shared" si="3"/>
         <v>0.10999999999999999</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <f t="shared" si="2"/>
         <v>23250</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>32</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="8">
+      <c r="B35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="7">
         <v>32</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>32</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <f t="shared" si="1"/>
         <v>49600</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <f t="shared" si="3"/>
         <v>0.10999999999999999</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <f t="shared" si="2"/>
         <v>24800</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <v>33</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="8">
+      <c r="B36" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="7">
         <v>33</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>33</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <f t="shared" si="1"/>
         <v>52800</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <f t="shared" si="3"/>
         <v>0.10999999999999999</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <f t="shared" si="2"/>
         <v>26400</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="B37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="7">
         <v>34</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>34</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <f t="shared" si="1"/>
         <v>56100</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <f t="shared" ref="F37:F53" si="4">F36+2</f>
         <v>88</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <f t="shared" si="3"/>
         <v>0.11999999999999998</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="7">
         <f t="shared" si="2"/>
         <v>28050</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <v>35</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="B38" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="7">
         <v>35</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>35</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <f t="shared" si="1"/>
         <v>59500</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="7">
         <f t="shared" si="3"/>
         <v>0.11999999999999998</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="7">
         <f t="shared" si="2"/>
         <v>29750</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="B39" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="7">
         <v>36</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>36</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <f t="shared" si="1"/>
         <v>63000</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <f t="shared" si="3"/>
         <v>0.11999999999999998</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="7">
         <f t="shared" si="2"/>
         <v>31500</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="B40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="7">
         <v>37</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>37</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <f t="shared" si="1"/>
         <v>66600</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <f t="shared" si="4"/>
         <v>94</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="7">
         <f t="shared" si="3"/>
         <v>0.12999999999999998</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="7">
         <f t="shared" si="2"/>
         <v>33300</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <v>38</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="8">
+      <c r="B41" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="7">
         <v>38</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>38</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <f t="shared" si="1"/>
         <v>70300</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="7">
         <f t="shared" si="3"/>
         <v>0.12999999999999998</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="7">
         <f t="shared" si="2"/>
         <v>35150</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <v>39</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="B42" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="7">
         <v>39</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>39</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <f t="shared" si="1"/>
         <v>74100</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <f t="shared" si="3"/>
         <v>0.12999999999999998</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="7">
         <f t="shared" si="2"/>
         <v>37050</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <v>40</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="B43" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="7">
         <v>40</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>40</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <f t="shared" si="1"/>
         <v>78000</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <f t="shared" si="3"/>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="7">
         <f t="shared" si="2"/>
         <v>39000</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <v>41</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="8">
+      <c r="B44" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="7">
         <v>41</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>41</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <f t="shared" si="1"/>
         <v>82000</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="7">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="7">
         <f t="shared" si="3"/>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="7">
         <f t="shared" si="2"/>
         <v>41000</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <v>42</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="8">
+      <c r="B45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="7">
         <v>42</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>42</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <f t="shared" si="1"/>
         <v>86100</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7">
         <f t="shared" si="4"/>
         <v>104</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="7">
         <f t="shared" si="3"/>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="7">
         <f t="shared" si="2"/>
         <v>43050</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <v>43</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="8">
+      <c r="B46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="7">
         <v>43</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>43</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <f t="shared" si="1"/>
         <v>90300</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="7">
         <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="7">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="7">
         <f t="shared" si="2"/>
         <v>45150</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <v>44</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="B47" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="7">
         <v>44</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>44</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <f t="shared" si="1"/>
         <v>94600</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="7">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="7">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="7">
         <f t="shared" si="2"/>
         <v>47300</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <v>45</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="8">
+      <c r="B48" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="7">
         <v>45</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>45</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <f t="shared" si="1"/>
         <v>99000</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="7">
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="7">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="7">
         <f t="shared" si="2"/>
         <v>49500</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+      <c r="A49" s="7">
         <v>46</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="B49" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="7">
         <v>46</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>46</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <f t="shared" si="1"/>
         <v>103500</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="7">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="7">
         <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="7">
         <f t="shared" si="2"/>
         <v>51750</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
+      <c r="A50" s="7">
         <v>47</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="8">
+      <c r="B50" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="7">
         <v>47</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>47</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="7">
         <f t="shared" si="1"/>
         <v>108100</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="7">
         <f t="shared" si="4"/>
         <v>114</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="7">
         <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="7">
         <f t="shared" si="2"/>
         <v>54050</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
+      <c r="A51" s="7">
         <v>48</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="8">
+      <c r="B51" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="7">
         <v>48</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>48</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <f t="shared" si="1"/>
         <v>112800</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="7">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="7">
         <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="7">
         <f t="shared" si="2"/>
         <v>56400</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
+      <c r="A52" s="7">
         <v>49</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="8">
+      <c r="B52" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="7">
         <v>49</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>49</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="7">
         <f t="shared" si="1"/>
         <v>117600</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="7">
         <f t="shared" si="4"/>
         <v>118</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="7">
         <f t="shared" si="3"/>
         <v>0.17</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="7">
         <f t="shared" si="2"/>
         <v>58800</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="8">
+      <c r="A53" s="7">
         <v>50</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="8">
+      <c r="B53" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="7">
         <v>50</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>50</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="7">
         <f t="shared" si="1"/>
         <v>122500</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="7">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="7">
         <f t="shared" si="3"/>
         <v>0.17</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="7">
         <f t="shared" si="2"/>
         <v>61250</v>
       </c>

--- a/Excel/镇魂街/national_alliance国战联盟.xlsx
+++ b/Excel/镇魂街/national_alliance国战联盟.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
   <si>
     <t>sheet名</t>
   </si>
@@ -500,10 +500,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>默认</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>int:e&lt;</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -534,6 +530,36 @@
   <si>
     <t>等阶名称</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderNum</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>等阶成员数量
+&gt;=1的值：对应的数量
+0：不限制数量</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认，导表用，无意义</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出联盟</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1261,7 +1287,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1435,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>86400</v>
+        <v>60</v>
       </c>
       <c r="G6" s="7"/>
       <c r="I6" s="7"/>
@@ -1504,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="7">
-        <v>43200</v>
+        <v>10</v>
       </c>
       <c r="G9" s="7"/>
       <c r="I9" s="7"/>
@@ -1732,31 +1758,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9" style="7"/>
     <col min="4" max="4" width="9.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.25" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9" style="7"/>
-    <col min="8" max="8" width="13.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="7"/>
+    <col min="5" max="5" width="9.25" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="13.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -1770,43 +1798,49 @@
         <v>82</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R1" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
@@ -1820,13 +1854,13 @@
         <v>32</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>53</v>
@@ -1855,8 +1889,14 @@
       <c r="P2" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>29</v>
       </c>
@@ -1870,43 +1910,49 @@
         <v>67</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="R3" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1920,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1952,9 +1998,13 @@
       <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1968,15 +2018,15 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3">
         <v>1</v>
       </c>
@@ -2001,8 +2051,14 @@
       <c r="P5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2016,16 +2072,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3">
         <v>1</v>
       </c>
@@ -2047,8 +2103,14 @@
       <c r="P6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2062,13 +2124,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>51</v>
@@ -2097,8 +2159,14 @@
       <c r="P7" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2112,12 +2180,14 @@
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2127,6 +2197,10 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/Excel/镇魂街/national_alliance国战联盟.xlsx
+++ b/Excel/镇魂街/national_alliance国战联盟.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="136">
   <si>
     <t>sheet名</t>
   </si>
@@ -559,6 +559,10 @@
   </si>
   <si>
     <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每级对应的是总累计经验</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +675,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -783,7 +794,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -803,6 +814,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
@@ -1287,7 +1299,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1461,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="G6" s="7"/>
       <c r="I6" s="7"/>
@@ -1530,7 +1542,8 @@
         <v>1</v>
       </c>
       <c r="F9" s="7">
-        <v>10</v>
+        <f>24*3600*3</f>
+        <v>259200</v>
       </c>
       <c r="G9" s="7"/>
       <c r="I9" s="7"/>
@@ -1760,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2213,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2319,7 +2332,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -2343,6 +2356,9 @@
       </c>
       <c r="H4" s="7">
         <v>0</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -2387,8 +2403,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" ref="E6:E53" si="1">E5+(D6-1)*100</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="0"/>
@@ -2398,7 +2413,7 @@
         <v>0.01</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" ref="H6:H53" si="2">H5+(A6-1)*50</f>
+        <f t="shared" ref="H6:H53" si="1">H5+(A6-1)*50</f>
         <v>150</v>
       </c>
     </row>
@@ -2416,8 +2431,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="1"/>
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
@@ -2427,7 +2441,7 @@
         <v>0.02</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
@@ -2445,8 +2459,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
@@ -2456,7 +2469,7 @@
         <v>0.02</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>500</v>
       </c>
     </row>
@@ -2474,8 +2487,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
@@ -2485,7 +2497,7 @@
         <v>0.02</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
     </row>
@@ -2503,8 +2515,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="1"/>
-        <v>2100</v>
+        <v>5600</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
@@ -2515,7 +2526,7 @@
         <v>0.03</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
     </row>
@@ -2533,19 +2544,18 @@
         <v>8</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>8400</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" ref="G11:G53" si="3">G8+0.01</f>
+        <f t="shared" ref="G11:G53" si="2">G8+0.01</f>
         <v>0.03</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1400</v>
       </c>
     </row>
@@ -2563,19 +2573,18 @@
         <v>9</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>12000</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
     </row>
@@ -2593,19 +2602,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>16500</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2250</v>
       </c>
     </row>
@@ -2623,19 +2631,18 @@
         <v>11</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>22000</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2750</v>
       </c>
     </row>
@@ -2653,19 +2660,18 @@
         <v>12</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="1"/>
-        <v>6600</v>
+        <v>28600</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3300</v>
       </c>
     </row>
@@ -2683,19 +2689,18 @@
         <v>13</v>
       </c>
       <c r="E16" s="7">
-        <f t="shared" si="1"/>
-        <v>7800</v>
+        <v>36400</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="G16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3900</v>
       </c>
     </row>
@@ -2713,19 +2718,18 @@
         <v>14</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="1"/>
-        <v>9100</v>
+        <v>45500</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4550</v>
       </c>
     </row>
@@ -2743,19 +2747,18 @@
         <v>15</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="1"/>
-        <v>10500</v>
+        <v>56000</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5250</v>
       </c>
     </row>
@@ -2773,19 +2776,18 @@
         <v>16</v>
       </c>
       <c r="E19" s="7">
-        <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>68000</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
     </row>
@@ -2803,19 +2805,18 @@
         <v>17</v>
       </c>
       <c r="E20" s="7">
-        <f t="shared" si="1"/>
-        <v>13600</v>
+        <v>81600</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="G20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6800</v>
       </c>
     </row>
@@ -2833,19 +2834,18 @@
         <v>18</v>
       </c>
       <c r="E21" s="7">
-        <f t="shared" si="1"/>
-        <v>15300</v>
+        <v>96900</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7650</v>
       </c>
     </row>
@@ -2863,19 +2863,18 @@
         <v>19</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="1"/>
-        <v>17100</v>
+        <v>114000</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8550</v>
       </c>
     </row>
@@ -2893,19 +2892,18 @@
         <v>20</v>
       </c>
       <c r="E23" s="7">
-        <f t="shared" si="1"/>
-        <v>19000</v>
+        <v>133000</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9500</v>
       </c>
     </row>
@@ -2923,19 +2921,18 @@
         <v>21</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="1"/>
-        <v>21000</v>
+        <v>154000</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10500</v>
       </c>
     </row>
@@ -2953,19 +2950,18 @@
         <v>22</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="1"/>
-        <v>23100</v>
+        <v>177100</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11550</v>
       </c>
     </row>
@@ -2983,19 +2979,18 @@
         <v>23</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="1"/>
-        <v>25300</v>
+        <v>202400</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12650</v>
       </c>
     </row>
@@ -3013,19 +3008,18 @@
         <v>24</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="1"/>
-        <v>27600</v>
+        <v>230000</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13800</v>
       </c>
     </row>
@@ -3043,19 +3037,18 @@
         <v>25</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>260000</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
@@ -3073,19 +3066,18 @@
         <v>26</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="1"/>
-        <v>32500</v>
+        <v>292500</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16250</v>
       </c>
     </row>
@@ -3103,19 +3095,18 @@
         <v>27</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="1"/>
-        <v>35100</v>
+        <v>327600</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.09</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17550</v>
       </c>
     </row>
@@ -3133,19 +3124,18 @@
         <v>28</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="1"/>
-        <v>37800</v>
+        <v>365400</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18900</v>
       </c>
     </row>
@@ -3163,19 +3153,18 @@
         <v>29</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="1"/>
-        <v>40600</v>
+        <v>406000</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20300</v>
       </c>
     </row>
@@ -3193,19 +3182,18 @@
         <v>30</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="1"/>
-        <v>43500</v>
+        <v>449500</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21750</v>
       </c>
     </row>
@@ -3223,19 +3211,18 @@
         <v>31</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="1"/>
-        <v>46500</v>
+        <v>496000</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23250</v>
       </c>
     </row>
@@ -3253,19 +3240,18 @@
         <v>32</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="1"/>
-        <v>49600</v>
+        <v>545600</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24800</v>
       </c>
     </row>
@@ -3283,19 +3269,18 @@
         <v>33</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="1"/>
-        <v>52800</v>
+        <v>598400</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26400</v>
       </c>
     </row>
@@ -3313,19 +3298,18 @@
         <v>34</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="1"/>
-        <v>56100</v>
+        <v>654500</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" ref="F37:F53" si="4">F36+2</f>
+        <f t="shared" ref="F37:F53" si="3">F36+2</f>
         <v>88</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.11999999999999998</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28050</v>
       </c>
     </row>
@@ -3343,19 +3327,18 @@
         <v>35</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="1"/>
-        <v>59500</v>
+        <v>714000</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.11999999999999998</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29750</v>
       </c>
     </row>
@@ -3373,19 +3356,18 @@
         <v>36</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="1"/>
-        <v>63000</v>
+        <v>777000</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.11999999999999998</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31500</v>
       </c>
     </row>
@@ -3403,19 +3385,18 @@
         <v>37</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="1"/>
-        <v>66600</v>
+        <v>843600</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.12999999999999998</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>33300</v>
       </c>
     </row>
@@ -3433,19 +3414,18 @@
         <v>38</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="1"/>
-        <v>70300</v>
+        <v>913900</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.12999999999999998</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35150</v>
       </c>
     </row>
@@ -3463,19 +3443,18 @@
         <v>39</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="1"/>
-        <v>74100</v>
+        <v>988000</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.12999999999999998</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37050</v>
       </c>
     </row>
@@ -3493,19 +3472,18 @@
         <v>40</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" si="1"/>
-        <v>78000</v>
+        <v>1066000</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.13999999999999999</v>
       </c>
       <c r="H43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39000</v>
       </c>
     </row>
@@ -3523,19 +3501,18 @@
         <v>41</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" si="1"/>
-        <v>82000</v>
+        <v>1148000</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.13999999999999999</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41000</v>
       </c>
     </row>
@@ -3553,19 +3530,18 @@
         <v>42</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" si="1"/>
-        <v>86100</v>
+        <v>1234100</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.13999999999999999</v>
       </c>
       <c r="H45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43050</v>
       </c>
     </row>
@@ -3583,19 +3559,18 @@
         <v>43</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="1"/>
-        <v>90300</v>
+        <v>1324400</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45150</v>
       </c>
     </row>
@@ -3613,19 +3588,18 @@
         <v>44</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="1"/>
-        <v>94600</v>
+        <v>1419000</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47300</v>
       </c>
     </row>
@@ -3643,19 +3617,18 @@
         <v>45</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="1"/>
-        <v>99000</v>
+        <v>1518000</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49500</v>
       </c>
     </row>
@@ -3673,19 +3646,18 @@
         <v>46</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="1"/>
-        <v>103500</v>
+        <v>1621500</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51750</v>
       </c>
     </row>
@@ -3703,19 +3675,18 @@
         <v>47</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="1"/>
-        <v>108100</v>
+        <v>1729600</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54050</v>
       </c>
     </row>
@@ -3733,19 +3704,18 @@
         <v>48</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="1"/>
-        <v>112800</v>
+        <v>1842400</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
       <c r="H51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56400</v>
       </c>
     </row>
@@ -3763,19 +3733,18 @@
         <v>49</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="1"/>
-        <v>117600</v>
+        <v>1960000</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.17</v>
       </c>
       <c r="H52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>58800</v>
       </c>
     </row>
@@ -3793,19 +3762,18 @@
         <v>50</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="1"/>
-        <v>122500</v>
+        <v>2082500</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.17</v>
       </c>
       <c r="H53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>61250</v>
       </c>
     </row>
